--- a/data/trans_orig/P23_1_2016_2023-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P23_1_2016_2023-Clase-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>220553</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>200417</v>
+        <v>198942</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>243283</v>
+        <v>241504</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5139996331496496</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4670722551108454</v>
+        <v>0.4636339822200869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5669714911147685</v>
+        <v>0.5628253783734123</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>200</v>
@@ -763,19 +763,19 @@
         <v>211850</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>191754</v>
+        <v>193201</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>230840</v>
+        <v>231421</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6104219597861157</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.5525188507686465</v>
+        <v>0.556687654137754</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6651408814755508</v>
+        <v>0.666815027432923</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>408</v>
@@ -784,19 +784,19 @@
         <v>432403</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>403562</v>
+        <v>399717</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>459464</v>
+        <v>458749</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5571149774570411</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5199560269812514</v>
+        <v>0.5150018668538303</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5919809758142925</v>
+        <v>0.5910592675362931</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>102215</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>85449</v>
+        <v>85175</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>121406</v>
+        <v>122454</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.2382127574632305</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1991392210887223</v>
+        <v>0.198499504511347</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2829362915222346</v>
+        <v>0.2853790732190393</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>66</v>
@@ -834,19 +834,19 @@
         <v>68724</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>54825</v>
+        <v>54315</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>84890</v>
+        <v>85609</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1980193123502505</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.157971348641776</v>
+        <v>0.1565032024725062</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2446003123332604</v>
+        <v>0.2466738294976727</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>157</v>
@@ -855,19 +855,19 @@
         <v>170939</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>147229</v>
+        <v>148420</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>194108</v>
+        <v>196514</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.220240216399375</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1896921704906879</v>
+        <v>0.1912272206631319</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2500922097700367</v>
+        <v>0.2531920824475327</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>14006</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8115</v>
+        <v>7365</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23495</v>
+        <v>23470</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03264072858046985</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01891173962266984</v>
+        <v>0.01716519753586069</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.05475474208113095</v>
+        <v>0.05469640894547568</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -905,19 +905,19 @@
         <v>7480</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3620</v>
+        <v>3654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14190</v>
+        <v>14804</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.02155200975635611</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01043172858232325</v>
+        <v>0.01052968607935991</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04088780052363149</v>
+        <v>0.04265652532654421</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>21</v>
@@ -926,19 +926,19 @@
         <v>21486</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>13730</v>
+        <v>13169</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32267</v>
+        <v>32850</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02768239634864102</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01768974121789793</v>
+        <v>0.01696721584539418</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.04157386376456671</v>
+        <v>0.04232392368373484</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>92318</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74296</v>
+        <v>76144</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110069</v>
+        <v>112300</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2151468808066501</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.173146439878855</v>
+        <v>0.1774540863185912</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2565154674644824</v>
+        <v>0.261716044862572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>58</v>
@@ -976,19 +976,19 @@
         <v>59002</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>45471</v>
+        <v>45526</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>75045</v>
+        <v>73213</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1700067181072777</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1310185315326016</v>
+        <v>0.1311781590161141</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2162329087714726</v>
+        <v>0.2109540114129061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>142</v>
@@ -997,19 +997,19 @@
         <v>151319</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>129172</v>
+        <v>129959</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>173093</v>
+        <v>174460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1949624097949429</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1664272077974049</v>
+        <v>0.1674413477737322</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2230160198465412</v>
+        <v>0.2247764382577388</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>186895</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>168045</v>
+        <v>167786</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>207592</v>
+        <v>207291</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.4968559383182909</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4467443219536084</v>
+        <v>0.4460553935979972</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5518789899714305</v>
+        <v>0.5510778364483868</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>190</v>
@@ -1122,19 +1122,19 @@
         <v>201246</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>181581</v>
+        <v>180843</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>222066</v>
+        <v>221697</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.5420827748391187</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.4891134880756368</v>
+        <v>0.4871253804132168</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.598164379847518</v>
+        <v>0.5971698133381446</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>365</v>
@@ -1143,19 +1143,19 @@
         <v>388141</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>361799</v>
+        <v>362012</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>417160</v>
+        <v>419968</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.5193208207026588</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.484075718371344</v>
+        <v>0.4843607406892039</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.5581470222531028</v>
+        <v>0.5619041538900166</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>84666</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>70060</v>
+        <v>69184</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>102644</v>
+        <v>101327</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2250839863753596</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.186253642137453</v>
+        <v>0.1839250329776727</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2728761445730494</v>
+        <v>0.2693746487625896</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>65</v>
@@ -1193,19 +1193,19 @@
         <v>69943</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>54458</v>
+        <v>54499</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>85131</v>
+        <v>86798</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1884014699057723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1466885583223557</v>
+        <v>0.1467999138269516</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2293114323525457</v>
+        <v>0.2338020668014038</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>147</v>
@@ -1214,19 +1214,19 @@
         <v>154610</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>133195</v>
+        <v>132723</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>178250</v>
+        <v>177202</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.206863202401835</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1782109204362724</v>
+        <v>0.1775798296834619</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2384934880566975</v>
+        <v>0.237090863325987</v>
       </c>
     </row>
     <row r="11">
@@ -1243,19 +1243,19 @@
         <v>10584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4885</v>
+        <v>5467</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>20706</v>
+        <v>20029</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02813625512096714</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01298740076699681</v>
+        <v>0.01453352710292489</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.0550455495313894</v>
+        <v>0.05324575172706929</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>8</v>
@@ -1264,19 +1264,19 @@
         <v>7738</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3772</v>
+        <v>3745</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14550</v>
+        <v>14492</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02084378997576047</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01015967445286037</v>
+        <v>0.01008757709722122</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.03919110436693068</v>
+        <v>0.03903637963117999</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>17</v>
@@ -1285,19 +1285,19 @@
         <v>18322</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10727</v>
+        <v>10896</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28467</v>
+        <v>30149</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02451397276867999</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01435306701774693</v>
+        <v>0.014578417728532</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03808819393867801</v>
+        <v>0.04033834142451381</v>
       </c>
     </row>
     <row r="12">
@@ -1314,19 +1314,19 @@
         <v>94010</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>78006</v>
+        <v>76151</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>110967</v>
+        <v>111237</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2499238201853824</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2073776738640018</v>
+        <v>0.2024450498598468</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2950029386351147</v>
+        <v>0.2957222235046034</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>88</v>
@@ -1335,19 +1335,19 @@
         <v>92318</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>76499</v>
+        <v>76665</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>112032</v>
+        <v>110259</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2486719652793485</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2060605275503456</v>
+        <v>0.2065060525005583</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3017738284352619</v>
+        <v>0.2969966775779054</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>175</v>
@@ -1356,19 +1356,19 @@
         <v>186329</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>163828</v>
+        <v>162834</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>210408</v>
+        <v>209965</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2493020041268262</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2191973287451615</v>
+        <v>0.2178663626759678</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2815200723930889</v>
+        <v>0.2809262494858197</v>
       </c>
     </row>
     <row r="13">
@@ -1460,19 +1460,19 @@
         <v>187390</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>166061</v>
+        <v>165929</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>208685</v>
+        <v>210347</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3590429733554063</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3181776286977015</v>
+        <v>0.3179246778094227</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3998453007357008</v>
+        <v>0.4030292779137826</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>87</v>
@@ -1481,19 +1481,19 @@
         <v>97259</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85676</v>
+        <v>84970</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>111431</v>
+        <v>110974</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5854631869951551</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5157404737207891</v>
+        <v>0.5114865558197463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6707739420966378</v>
+        <v>0.6680260808077207</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>270</v>
@@ -1502,19 +1502,19 @@
         <v>284648</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>258493</v>
+        <v>257751</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>310509</v>
+        <v>309719</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4137109467588534</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.37569750770375</v>
+        <v>0.3746186402610275</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4512969574228554</v>
+        <v>0.4501501318187429</v>
       </c>
     </row>
     <row r="15">
@@ -1531,19 +1531,19 @@
         <v>117787</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>98158</v>
+        <v>100174</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>136653</v>
+        <v>137386</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.2256820317053805</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1880723260444924</v>
+        <v>0.1919350537849047</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2618298100280794</v>
+        <v>0.263235578802638</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>16</v>
@@ -1552,19 +1552,19 @@
         <v>16361</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9752</v>
+        <v>9875</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>25242</v>
+        <v>25128</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.09848635881526549</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.05870440710022003</v>
+        <v>0.05944208239743013</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1519484517602626</v>
+        <v>0.1512606006762125</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>135</v>
@@ -1573,19 +1573,19 @@
         <v>134147</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>114276</v>
+        <v>115825</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>156504</v>
+        <v>154912</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1949713034059455</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1660896835159044</v>
+        <v>0.1683417569956589</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2274651670579614</v>
+        <v>0.2251503848962436</v>
       </c>
     </row>
     <row r="16">
@@ -1602,19 +1602,19 @@
         <v>14179</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7802</v>
+        <v>8378</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>24371</v>
+        <v>23526</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02716791441208237</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01494956982806244</v>
+        <v>0.01605292354865084</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04669476589474088</v>
+        <v>0.04507731699570541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1623,19 +1623,19 @@
         <v>6496</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>3029</v>
+        <v>3107</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>13950</v>
+        <v>15847</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.03910474180699721</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.0182321436278481</v>
+        <v>0.0187024122969265</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08397258011282624</v>
+        <v>0.09539517009298171</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>20</v>
@@ -1644,19 +1644,19 @@
         <v>20675</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>13063</v>
+        <v>13194</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>31121</v>
+        <v>31650</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.0300499987987044</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01898632843953567</v>
+        <v>0.01917622737646025</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.04523154130689928</v>
+        <v>0.04600093136019495</v>
       </c>
     </row>
     <row r="17">
@@ -1673,19 +1673,19 @@
         <v>202559</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>182202</v>
+        <v>180625</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>227147</v>
+        <v>224048</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3881070805271308</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3491029826426721</v>
+        <v>0.3460824366311152</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.435219237595157</v>
+        <v>0.4292813096010133</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>44</v>
@@ -1694,19 +1694,19 @@
         <v>46007</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>34928</v>
+        <v>34574</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>58235</v>
+        <v>58861</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2769457123825822</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2102527728606737</v>
+        <v>0.2081201673432902</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3505521445739997</v>
+        <v>0.3543225330018179</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>230</v>
@@ -1715,19 +1715,19 @@
         <v>248565</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>223223</v>
+        <v>225732</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>274829</v>
+        <v>275413</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3612677510364968</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3244351392667767</v>
+        <v>0.3280823232942631</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.399439656760012</v>
+        <v>0.4002887926114378</v>
       </c>
     </row>
     <row r="18">
@@ -1819,19 +1819,19 @@
         <v>453516</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>422627</v>
+        <v>417870</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>486918</v>
+        <v>485886</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3947823419167806</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3678938968922063</v>
+        <v>0.3637525964317997</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4238585770293333</v>
+        <v>0.4229605459850016</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>393</v>
@@ -1840,19 +1840,19 @@
         <v>408238</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>376853</v>
+        <v>382226</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>436192</v>
+        <v>435746</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4948652493177802</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4568202132183001</v>
+        <v>0.4633332570240057</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5287514441692466</v>
+        <v>0.5282102057033228</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>833</v>
@@ -1861,19 +1861,19 @@
         <v>861754</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>817971</v>
+        <v>816775</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>903546</v>
+        <v>903640</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4366135727142634</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4144309141195074</v>
+        <v>0.4138246507815553</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4577878396504431</v>
+        <v>0.4578357358073341</v>
       </c>
     </row>
     <row r="20">
@@ -1890,19 +1890,19 @@
         <v>265065</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>235724</v>
+        <v>239011</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>294106</v>
+        <v>295622</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2307369241628594</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2051961523722169</v>
+        <v>0.2080577731794108</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2560172406208909</v>
+        <v>0.2573365345241151</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>95</v>
@@ -1911,19 +1911,19 @@
         <v>100897</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>83223</v>
+        <v>83758</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>122536</v>
+        <v>122232</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1223064991736837</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.100882654664668</v>
+        <v>0.1015311054634109</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1485373176452038</v>
+        <v>0.1481693070046775</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>351</v>
@@ -1932,19 +1932,19 @@
         <v>365961</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>330520</v>
+        <v>333691</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>401309</v>
+        <v>407185</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.185416716637133</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1674600857579001</v>
+        <v>0.1690668367949524</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2033260909704178</v>
+        <v>0.2063032872432136</v>
       </c>
     </row>
     <row r="21">
@@ -1961,19 +1961,19 @@
         <v>28004</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19019</v>
+        <v>18255</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>42084</v>
+        <v>40771</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.02437714242639166</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01655627847291309</v>
+        <v>0.01589050341044057</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03663424610554029</v>
+        <v>0.03549078605069909</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>30</v>
@@ -1982,19 +1982,19 @@
         <v>31600</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>21774</v>
+        <v>21252</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>44010</v>
+        <v>44650</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.03830491253490139</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.02639414100440518</v>
+        <v>0.02576110992117008</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.05334875296488486</v>
+        <v>0.05412520344903194</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>56</v>
@@ -2003,19 +2003,19 @@
         <v>59603</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>44852</v>
+        <v>45187</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>75981</v>
+        <v>76028</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.03019847377090388</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.02272456139467204</v>
+        <v>0.02289447332511386</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03849625681890844</v>
+        <v>0.03852007375232593</v>
       </c>
     </row>
     <row r="22">
@@ -2032,19 +2032,19 @@
         <v>402190</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>370789</v>
+        <v>369070</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>437196</v>
+        <v>432203</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3501035914939683</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3227693020156386</v>
+        <v>0.3212733690668682</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3805757985563079</v>
+        <v>0.3762300887986852</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>279</v>
@@ -2053,19 +2053,19 @@
         <v>284214</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>258022</v>
+        <v>258515</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>312367</v>
+        <v>311774</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3445233389736347</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3127730576583465</v>
+        <v>0.3133713502429986</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3786506815576696</v>
+        <v>0.3779321452662377</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>659</v>
@@ -2074,19 +2074,19 @@
         <v>686404</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>645659</v>
+        <v>644039</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>728291</v>
+        <v>727154</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3477712368776997</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3271274114201945</v>
+        <v>0.3263068878025125</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3689936792471022</v>
+        <v>0.3684174541125154</v>
       </c>
     </row>
     <row r="23">
@@ -2178,19 +2178,19 @@
         <v>251505</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>227010</v>
+        <v>224821</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>275512</v>
+        <v>278926</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.4051922640714862</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3657284706135241</v>
+        <v>0.3622019932954196</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4438687409323645</v>
+        <v>0.4493685394698103</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>412</v>
@@ -2199,19 +2199,19 @@
         <v>438979</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>411441</v>
+        <v>411559</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>465317</v>
+        <v>466164</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5955047286918741</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.558146890136862</v>
+        <v>0.5583067050251507</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6312334117843874</v>
+        <v>0.6323819421864825</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>659</v>
@@ -2220,19 +2220,19 @@
         <v>690485</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>654223</v>
+        <v>652492</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>727990</v>
+        <v>727777</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5085090387982225</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.4818037348715918</v>
+        <v>0.4805291930347265</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5361303032929065</v>
+        <v>0.5359729263636679</v>
       </c>
     </row>
     <row r="25">
@@ -2249,19 +2249,19 @@
         <v>127978</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>110892</v>
+        <v>108895</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>149241</v>
+        <v>150949</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2061812463605533</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1786551275811764</v>
+        <v>0.175437546702117</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2404382986754275</v>
+        <v>0.243188792223611</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>78</v>
@@ -2270,19 +2270,19 @@
         <v>83081</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>65937</v>
+        <v>66476</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>100968</v>
+        <v>102462</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1127053631084459</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.08944803056574079</v>
+        <v>0.09017923337241987</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1369694336404459</v>
+        <v>0.1389964728788723</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>206</v>
@@ -2291,19 +2291,19 @@
         <v>211059</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>182790</v>
+        <v>186161</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>240260</v>
+        <v>239044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1554350863988054</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1346161763533788</v>
+        <v>0.1370985236525265</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1769398768796645</v>
+        <v>0.1760446048077672</v>
       </c>
     </row>
     <row r="26">
@@ -2320,19 +2320,19 @@
         <v>9724</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>4861</v>
+        <v>5451</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>16536</v>
+        <v>17539</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01566532979853397</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.0078319602982837</v>
+        <v>0.008781200288112457</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.02664006327961756</v>
+        <v>0.02825614145349678</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>8</v>
@@ -2341,19 +2341,19 @@
         <v>7989</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3925</v>
+        <v>3857</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>15731</v>
+        <v>15058</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.01083707747503915</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.005324722846291458</v>
+        <v>0.005232952935554478</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02134061178931718</v>
+        <v>0.02042745300963046</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>18</v>
@@ -2362,19 +2362,19 @@
         <v>17712</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>11271</v>
+        <v>11737</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>26945</v>
+        <v>26365</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01304416959956655</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.008300690276511709</v>
+        <v>0.008643701230370447</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.01984378646215412</v>
+        <v>0.01941644031175167</v>
       </c>
     </row>
     <row r="27">
@@ -2391,19 +2391,19 @@
         <v>231499</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>209436</v>
+        <v>206236</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>256097</v>
+        <v>255279</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.3729611597694265</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3374152538852375</v>
+        <v>0.3322600770084704</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.4125902846467448</v>
+        <v>0.4112712441791683</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>200</v>
@@ -2412,19 +2412,19 @@
         <v>207106</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>181606</v>
+        <v>180938</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>233658</v>
+        <v>232839</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2809528307246408</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.2463613401947544</v>
+        <v>0.2454541528753882</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.3169729717897632</v>
+        <v>0.3158621043980239</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>412</v>
@@ -2433,19 +2433,19 @@
         <v>438605</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>405222</v>
+        <v>402485</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>474098</v>
+        <v>474335</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.3230117052034055</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.2984268664966065</v>
+        <v>0.2964108301355524</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.3491509379174079</v>
+        <v>0.3493253448985617</v>
       </c>
     </row>
     <row r="28">
@@ -2537,19 +2537,19 @@
         <v>209620</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>193866</v>
+        <v>192963</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>223851</v>
+        <v>224753</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.7300132369706165</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.6751504414411136</v>
+        <v>0.6720048640975234</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.7795746927905454</v>
+        <v>0.7827150585751608</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>782</v>
@@ -2558,19 +2558,19 @@
         <v>860712</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>833380</v>
+        <v>832960</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>884869</v>
+        <v>887539</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.7972289316614508</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.7719126634450391</v>
+        <v>0.7715240164169352</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.8196035644479707</v>
+        <v>0.8220771300529398</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>980</v>
@@ -2579,19 +2579,19 @@
         <v>1070332</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1036041</v>
+        <v>1039068</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>1100459</v>
+        <v>1099869</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.7831076212113057</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.7580184300762859</v>
+        <v>0.7602334740991171</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8051501113075396</v>
+        <v>0.8047182152640295</v>
       </c>
     </row>
     <row r="30">
@@ -2608,19 +2608,19 @@
         <v>5570</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>12157</v>
+        <v>12016</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.01939919001127695</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.007363555835206866</v>
+        <v>0.007352801032206967</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.04233734022620127</v>
+        <v>0.04184797979155741</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>44</v>
@@ -2629,19 +2629,19 @@
         <v>46888</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>34156</v>
+        <v>33887</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>61694</v>
+        <v>62140</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.04342987030858863</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03163636646497286</v>
+        <v>0.03138765208720107</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05714343554133985</v>
+        <v>0.05755710424648672</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>49</v>
@@ -2650,19 +2650,19 @@
         <v>52459</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>40161</v>
+        <v>39081</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>69635</v>
+        <v>69097</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.03838127714344507</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.02938400255349055</v>
+        <v>0.02859346977779826</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.0509485282591841</v>
+        <v>0.05055453931402579</v>
       </c>
     </row>
     <row r="31">
@@ -2679,19 +2679,19 @@
         <v>8202</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3980</v>
+        <v>3212</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>15330</v>
+        <v>15371</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.02856490780263847</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01386030787954216</v>
+        <v>0.01118752119620587</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.053388140924993</v>
+        <v>0.05352993275174687</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>12</v>
@@ -2700,19 +2700,19 @@
         <v>13101</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>6672</v>
+        <v>7028</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22271</v>
+        <v>22390</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01213511016122791</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.006180067874027702</v>
+        <v>0.006509417806614239</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.0206286431055192</v>
+        <v>0.02073843110449817</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>20</v>
@@ -2721,19 +2721,19 @@
         <v>21304</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>12802</v>
+        <v>12980</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>32715</v>
+        <v>32243</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.01558683782981149</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009366540672383379</v>
+        <v>0.009496838173843938</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.02393600750208916</v>
+        <v>0.02359078791017358</v>
       </c>
     </row>
     <row r="32">
@@ -2750,19 +2750,19 @@
         <v>63753</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51185</v>
+        <v>49571</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>79263</v>
+        <v>77888</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.222022665215468</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1782537465925448</v>
+        <v>0.1726354668431025</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2760391705924843</v>
+        <v>0.2712488390200001</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>152</v>
@@ -2771,19 +2771,19 @@
         <v>158928</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>136956</v>
+        <v>136604</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>184058</v>
+        <v>184448</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1472060878687327</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1268548246737334</v>
+        <v>0.1265283919551516</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1704820259986516</v>
+        <v>0.1708440113252644</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>213</v>
@@ -2792,19 +2792,19 @@
         <v>222681</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>195491</v>
+        <v>196389</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>250112</v>
+        <v>250486</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1629242638154377</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1430306108979446</v>
+        <v>0.1436881603521273</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1829939198186967</v>
+        <v>0.1832680962369889</v>
       </c>
     </row>
     <row r="33">
@@ -2896,19 +2896,19 @@
         <v>1509478</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1451095</v>
+        <v>1453243</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1567393</v>
+        <v>1569791</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.4460915223010451</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.4288377277590524</v>
+        <v>0.4294726805549472</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.4632071488572083</v>
+        <v>0.4639158500530191</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2064</v>
@@ -2917,19 +2917,19 @@
         <v>2218285</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2166091</v>
+        <v>2158238</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2273392</v>
+        <v>2278133</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.6290941205934399</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6142923994021749</v>
+        <v>0.6120652604853258</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.6447224096846412</v>
+        <v>0.6460666697806532</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3515</v>
@@ -2938,19 +2938,19 @@
         <v>3727763</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>3649647</v>
+        <v>3645505</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>3816444</v>
+        <v>3816782</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.5394781050181303</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.5281732337797437</v>
+        <v>0.5275737984549453</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.5523119387687796</v>
+        <v>0.552360784151578</v>
       </c>
     </row>
     <row r="35">
@@ -2967,19 +2967,19 @@
         <v>703281</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>657669</v>
+        <v>657725</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>756103</v>
+        <v>750134</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2078385372294898</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1943589863654507</v>
+        <v>0.1943756373679248</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2234489616393664</v>
+        <v>0.2216850174675559</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>364</v>
@@ -2988,19 +2988,19 @@
         <v>385894</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>351592</v>
+        <v>348039</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>425581</v>
+        <v>423775</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1094374777298315</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09970969826158918</v>
+        <v>0.09870219485374947</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1206925562024144</v>
+        <v>0.1201804035807638</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1045</v>
@@ -3009,19 +3009,19 @@
         <v>1089175</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>1033145</v>
+        <v>1028560</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1153586</v>
+        <v>1152140</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1576242847098001</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1495157150306832</v>
+        <v>0.1488521993203938</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1669457781823313</v>
+        <v>0.166736560409664</v>
       </c>
     </row>
     <row r="36">
@@ -3038,19 +3038,19 @@
         <v>84698</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>68895</v>
+        <v>67668</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>105555</v>
+        <v>103987</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.02503067502610077</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.0203603038976683</v>
+        <v>0.01999767875692017</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03119432456734329</v>
+        <v>0.03073092193734587</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>72</v>
@@ -3059,19 +3059,19 @@
         <v>74404</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>57704</v>
+        <v>58460</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>92668</v>
+        <v>93499</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02110050521266527</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01636449419453541</v>
+        <v>0.01657891026820322</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02628011129826299</v>
+        <v>0.02651585077280569</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>152</v>
@@ -3080,19 +3080,19 @@
         <v>159102</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>134560</v>
+        <v>135712</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>186510</v>
+        <v>188920</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02302510170747408</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01947340442108299</v>
+        <v>0.01964005441583206</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02699156284094734</v>
+        <v>0.02734038135052337</v>
       </c>
     </row>
     <row r="37">
@@ -3109,19 +3109,19 @@
         <v>1086328</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1035887</v>
+        <v>1025311</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>1145583</v>
+        <v>1142652</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3210392654433643</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3061326919003199</v>
+        <v>0.3030072758121101</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.338550677358365</v>
+        <v>0.3376844390522193</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>821</v>
@@ -3130,19 +3130,19 @@
         <v>847575</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>798506</v>
+        <v>798683</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>898543</v>
+        <v>902742</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2403678964640633</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2264521260698009</v>
+        <v>0.2265023035896108</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2548221433112922</v>
+        <v>0.2560128525882041</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1831</v>
@@ -3151,19 +3151,19 @@
         <v>1933903</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1855319</v>
+        <v>1857581</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>2003343</v>
+        <v>2009442</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2798725085645956</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2684998576373783</v>
+        <v>0.2688272057757785</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2899218451930214</v>
+        <v>0.2908044198910536</v>
       </c>
     </row>
     <row r="38">
@@ -3497,19 +3497,19 @@
         <v>325718</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>302233</v>
+        <v>302594</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>350013</v>
+        <v>348798</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5915495515533366</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.548898620626576</v>
+        <v>0.5495535769222395</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6356735800209561</v>
+        <v>0.6334665351699624</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>478</v>
@@ -3518,19 +3518,19 @@
         <v>345822</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>329326</v>
+        <v>327557</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>363519</v>
+        <v>363004</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.7080547997352684</v>
+        <v>0.7080547997352683</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.674281285893765</v>
+        <v>0.670658567923447</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7442892170059867</v>
+        <v>0.7432347830796868</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>795</v>
@@ -3539,19 +3539,19 @@
         <v>671540</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>642888</v>
+        <v>643226</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>700893</v>
+        <v>702144</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.6463145515116898</v>
+        <v>0.6463145515116897</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.6187392052902386</v>
+        <v>0.619064081823154</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6745656468414987</v>
+        <v>0.6757698269575867</v>
       </c>
     </row>
     <row r="5">
@@ -3568,19 +3568,19 @@
         <v>130620</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>110942</v>
+        <v>110660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>151825</v>
+        <v>150972</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2372236665078155</v>
+        <v>0.2372236665078154</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2014871473994484</v>
+        <v>0.2009742603060874</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2757358535488558</v>
+        <v>0.2741859262376982</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>103</v>
@@ -3589,19 +3589,19 @@
         <v>69425</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>56725</v>
+        <v>57948</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>82216</v>
+        <v>85123</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1421441221322047</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1161414968756106</v>
+        <v>0.1186458909233511</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1683340797682521</v>
+        <v>0.1742861140378891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>246</v>
@@ -3610,19 +3610,19 @@
         <v>200044</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>177488</v>
+        <v>176940</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>225165</v>
+        <v>224465</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1925301327397968</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1708207994413418</v>
+        <v>0.1702939581645379</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2167069097418007</v>
+        <v>0.2160333524121155</v>
       </c>
     </row>
     <row r="6">
@@ -3639,19 +3639,19 @@
         <v>8936</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4198</v>
+        <v>4209</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>17521</v>
+        <v>16673</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01622968522641402</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007624282233427444</v>
+        <v>0.007644882354904018</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.03182144694089913</v>
+        <v>0.03028006849266964</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>23</v>
@@ -3660,19 +3660,19 @@
         <v>15891</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>9935</v>
+        <v>10312</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>22992</v>
+        <v>23666</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.0325364655669963</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.02034175395644741</v>
+        <v>0.02111235389445596</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.04707556969572641</v>
+        <v>0.04845445262969869</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>32</v>
@@ -3681,19 +3681,19 @@
         <v>24828</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>16717</v>
+        <v>17408</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>34822</v>
+        <v>34418</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.02389492639459137</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01608866801401094</v>
+        <v>0.01675377698682385</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.03351376764078909</v>
+        <v>0.03312495951140893</v>
       </c>
     </row>
     <row r="7">
@@ -3710,19 +3710,19 @@
         <v>85344</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>69861</v>
+        <v>66615</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>103496</v>
+        <v>103965</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.154997096712434</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1268769956531829</v>
+        <v>0.1209830234718173</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1879630359997522</v>
+        <v>0.1888150218652572</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>82</v>
@@ -3731,19 +3731,19 @@
         <v>57273</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>46209</v>
+        <v>46270</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>69591</v>
+        <v>70188</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1172646125655306</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.09461112824044909</v>
+        <v>0.09473569951222666</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.1424843949046377</v>
+        <v>0.1437068363754804</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>167</v>
@@ -3752,19 +3752,19 @@
         <v>142618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>122153</v>
+        <v>121960</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>165172</v>
+        <v>164813</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1372603893539221</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1175641935549117</v>
+        <v>0.1173785861514071</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1589673533069064</v>
+        <v>0.15862212662013</v>
       </c>
     </row>
     <row r="8">
@@ -3856,19 +3856,19 @@
         <v>286061</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>261985</v>
+        <v>263630</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>305610</v>
+        <v>307839</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.591999396541686</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.5421734178338283</v>
+        <v>0.5455777490679766</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.632454475384044</v>
+        <v>0.6370685982989943</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>379</v>
@@ -3877,19 +3877,19 @@
         <v>267797</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>250403</v>
+        <v>251121</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>286399</v>
+        <v>286236</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.6328769591788979</v>
+        <v>0.6328769591788977</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.5917700323312097</v>
+        <v>0.5934660872211733</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.6768367303920955</v>
+        <v>0.6764513012470103</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>656</v>
@@ -3898,19 +3898,19 @@
         <v>553859</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>524165</v>
+        <v>525195</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>579810</v>
+        <v>580994</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.6110835837574762</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.5783219594721419</v>
+        <v>0.5794583974250583</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.6397165104100498</v>
+        <v>0.6410222662873661</v>
       </c>
     </row>
     <row r="10">
@@ -3927,19 +3927,19 @@
         <v>102351</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>84835</v>
+        <v>85688</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>119211</v>
+        <v>121314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2118144465299662</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1755655656749386</v>
+        <v>0.1773303852402973</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2467052645801042</v>
+        <v>0.251057675636441</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>88</v>
@@ -3948,19 +3948,19 @@
         <v>62836</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>52005</v>
+        <v>51684</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77057</v>
+        <v>77421</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1484991210136506</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1229025020519952</v>
+        <v>0.1221435562790434</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1821072887562454</v>
+        <v>0.1829668009265537</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>204</v>
@@ -3969,19 +3969,19 @@
         <v>165188</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>145150</v>
+        <v>145406</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>189389</v>
+        <v>187055</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1822549168558048</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1601466947675513</v>
+        <v>0.1604298621302241</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2089562149961124</v>
+        <v>0.2063818468992019</v>
       </c>
     </row>
     <row r="11">
@@ -3998,19 +3998,19 @@
         <v>10919</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>4778</v>
+        <v>4385</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>22885</v>
+        <v>22988</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.02259651963061467</v>
+        <v>0.02259651963061468</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.009887417861249779</v>
+        <v>0.0090754013432724</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04735990288237614</v>
+        <v>0.04757329693540793</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>19</v>
@@ -4019,19 +4019,19 @@
         <v>13232</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8032</v>
+        <v>8024</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21018</v>
+        <v>21078</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03126966555031818</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0189824800251173</v>
+        <v>0.01896359575203375</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04967032318216415</v>
+        <v>0.04981182251771822</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>26</v>
@@ -4040,19 +4040,19 @@
         <v>24150</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>15520</v>
+        <v>14695</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36994</v>
+        <v>36397</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02664568327450596</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01712340184848212</v>
+        <v>0.01621312087883342</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.04081631508670197</v>
+        <v>0.04015748668245141</v>
       </c>
     </row>
     <row r="12">
@@ -4069,19 +4069,19 @@
         <v>83881</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>68894</v>
+        <v>69220</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>103504</v>
+        <v>103173</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1735896372977331</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1425756890157162</v>
+        <v>0.1432492294305192</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.214200386907825</v>
+        <v>0.2135153904514932</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>104</v>
@@ -4090,19 +4090,19 @@
         <v>79278</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>65109</v>
+        <v>65667</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94232</v>
+        <v>94949</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1873542542571334</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1538704288178991</v>
+        <v>0.1551890213099193</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.22269489012669</v>
+        <v>0.2243895099112156</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>185</v>
@@ -4111,19 +4111,19 @@
         <v>163158</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>141283</v>
+        <v>142521</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>185146</v>
+        <v>187429</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1800158161122132</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1558801813754705</v>
+        <v>0.1572466235665265</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2042755776067764</v>
+        <v>0.2067940054072372</v>
       </c>
     </row>
     <row r="13">
@@ -4215,19 +4215,19 @@
         <v>237819</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>215249</v>
+        <v>214219</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>259225</v>
+        <v>259167</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5042679836765345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4564117011749107</v>
+        <v>0.4542262172083677</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5496574916560993</v>
+        <v>0.5495353361928124</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>211</v>
@@ -4236,19 +4236,19 @@
         <v>137482</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>126951</v>
+        <v>127224</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>147283</v>
+        <v>148153</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7332486943202424</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6770814554165488</v>
+        <v>0.678540755860541</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7855227566795578</v>
+        <v>0.7901634173368318</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>454</v>
@@ -4257,19 +4257,19 @@
         <v>375301</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>351285</v>
+        <v>349162</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>400501</v>
+        <v>400971</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5694063167177636</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5329694595782537</v>
+        <v>0.5297482714386882</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6076404305985832</v>
+        <v>0.6083526585760247</v>
       </c>
     </row>
     <row r="15">
@@ -4286,19 +4286,19 @@
         <v>106179</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>88035</v>
+        <v>89123</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>123882</v>
+        <v>125237</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.2251401637177811</v>
+        <v>0.225140163717781</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1866683424325227</v>
+        <v>0.1889759727635067</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2626773342281891</v>
+        <v>0.2655501323570017</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>35</v>
@@ -4307,19 +4307,19 @@
         <v>22682</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>15813</v>
+        <v>15858</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>30669</v>
+        <v>30931</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.1209702698326917</v>
+        <v>0.1209702698326916</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.084337111930935</v>
+        <v>0.0845749349403238</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.1635705612086827</v>
+        <v>0.1649705931664668</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>159</v>
@@ -4328,19 +4328,19 @@
         <v>128860</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>109777</v>
+        <v>109879</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>147665</v>
+        <v>149012</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.1955068674384514</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1665535298161147</v>
+        <v>0.1667090657819513</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.2240371938059653</v>
+        <v>0.2260809932969032</v>
       </c>
     </row>
     <row r="16">
@@ -4357,19 +4357,19 @@
         <v>9190</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4004</v>
+        <v>3691</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>19413</v>
+        <v>18250</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.01948569797864519</v>
+        <v>0.01948569797864518</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.008489732544841713</v>
+        <v>0.007827388843874713</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04116285394223596</v>
+        <v>0.03869786693715929</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -4378,19 +4378,19 @@
         <v>2113</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>615</v>
+        <v>685</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5441</v>
+        <v>5641</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01126729552382844</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.003279929527681968</v>
+        <v>0.003653794757496255</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02901822261912031</v>
+        <v>0.03008587767427333</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>11</v>
@@ -4399,19 +4399,19 @@
         <v>11302</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5462</v>
+        <v>5849</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>20177</v>
+        <v>20554</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01714780220277923</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008287197511689262</v>
+        <v>0.008873861329165834</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03061295451015618</v>
+        <v>0.031184577996182</v>
       </c>
     </row>
     <row r="17">
@@ -4428,19 +4428,19 @@
         <v>118425</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98152</v>
+        <v>97523</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>138563</v>
+        <v>138703</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2511061546270393</v>
+        <v>0.2511061546270392</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2081191999960497</v>
+        <v>0.2067864660667443</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2938074575838444</v>
+        <v>0.2941045359347035</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>39</v>
@@ -4449,19 +4449,19 @@
         <v>25221</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17671</v>
+        <v>17628</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>33635</v>
+        <v>32402</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1345137403232374</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09424869096152926</v>
+        <v>0.09401899543064096</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1793892084822703</v>
+        <v>0.1728154741748598</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>153</v>
@@ -4470,19 +4470,19 @@
         <v>143646</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>124521</v>
+        <v>123411</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>167212</v>
+        <v>168388</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2179390136410057</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1889230869233146</v>
+        <v>0.1872394564451566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2536932545066944</v>
+        <v>0.2554781646593364</v>
       </c>
     </row>
     <row r="18">
@@ -4574,19 +4574,19 @@
         <v>556527</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>518808</v>
+        <v>518084</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>591426</v>
+        <v>590753</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.491699842285589</v>
+        <v>0.4916998422855891</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4583745456113298</v>
+        <v>0.4577352012053201</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5225335011254325</v>
+        <v>0.5219394248522778</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>805</v>
@@ -4595,19 +4595,19 @@
         <v>543710</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>519745</v>
+        <v>518906</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>570130</v>
+        <v>567758</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.6318475459700994</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.6039971913231235</v>
+        <v>0.6030219920997063</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.6625497449642913</v>
+        <v>0.6597933328774613</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1353</v>
@@ -4616,19 +4616,19 @@
         <v>1100238</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1053953</v>
+        <v>1054368</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1144855</v>
+        <v>1144867</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.5522304863417016</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.5289992565561848</v>
+        <v>0.5292077644520529</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5746248241545309</v>
+        <v>0.5746310974520493</v>
       </c>
     </row>
     <row r="20">
@@ -4645,19 +4645,19 @@
         <v>212025</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>186780</v>
+        <v>186026</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>238022</v>
+        <v>237543</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.187327358152293</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1650226361246492</v>
+        <v>0.1643569156073846</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2102961060443283</v>
+        <v>0.2098725681393319</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>119</v>
@@ -4666,19 +4666,19 @@
         <v>85111</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>71215</v>
+        <v>70981</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>100784</v>
+        <v>101606</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.09890742110465987</v>
+        <v>0.0989074211046599</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.08275878439366824</v>
+        <v>0.08248730038125021</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1171209082641983</v>
+        <v>0.1180762468965657</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>369</v>
@@ -4687,19 +4687,19 @@
         <v>297136</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>270044</v>
+        <v>267664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>328167</v>
+        <v>325971</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1491382505452042</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1355404440426556</v>
+        <v>0.1343455470900664</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1647131480251589</v>
+        <v>0.1636111920737068</v>
       </c>
     </row>
     <row r="21">
@@ -4716,19 +4716,19 @@
         <v>29876</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>19007</v>
+        <v>18992</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>44113</v>
+        <v>46129</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.02639615527131191</v>
+        <v>0.0263961552713119</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.01679285723913873</v>
+        <v>0.01677958314859437</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03897436616011721</v>
+        <v>0.04075575358672943</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>25</v>
@@ -4737,19 +4737,19 @@
         <v>20568</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>12824</v>
+        <v>13323</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>30361</v>
+        <v>30782</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.02390218295053924</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.01490312877791236</v>
+        <v>0.01548290407793877</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.035282698897066</v>
+        <v>0.03577225492253386</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>47</v>
@@ -4758,19 +4758,19 @@
         <v>50444</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>36778</v>
+        <v>37423</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>67808</v>
+        <v>68969</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.0253189934850987</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.01845977277118886</v>
+        <v>0.01878338763891964</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03403406861698128</v>
+        <v>0.03461675505968767</v>
       </c>
     </row>
     <row r="22">
@@ -4787,19 +4787,19 @@
         <v>333415</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>299526</v>
+        <v>300938</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>364246</v>
+        <v>366694</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.294576644290806</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2646353200751839</v>
+        <v>0.2658828385552517</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3218168408155069</v>
+        <v>0.3239797100987331</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>280</v>
@@ -4808,19 +4808,19 @@
         <v>211120</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>188363</v>
+        <v>189509</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>233581</v>
+        <v>233917</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2453428499747015</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2188973200196734</v>
+        <v>0.2202291262224332</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2714454832196944</v>
+        <v>0.2718361169367008</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>578</v>
@@ -4829,19 +4829,19 @@
         <v>544534</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>503758</v>
+        <v>506827</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>587563</v>
+        <v>590135</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2733122696279955</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2528460498299217</v>
+        <v>0.2543861251325634</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2949091348903333</v>
+        <v>0.2962002902910171</v>
       </c>
     </row>
     <row r="23">
@@ -4933,19 +4933,19 @@
         <v>288153</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>262823</v>
+        <v>262212</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>317726</v>
+        <v>316862</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.5083125453187393</v>
+        <v>0.5083125453187392</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4636286797310627</v>
+        <v>0.4625510000429501</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5604803227494163</v>
+        <v>0.5589561305502495</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>929</v>
@@ -4954,19 +4954,19 @@
         <v>575582</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>549842</v>
+        <v>552669</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>596973</v>
+        <v>596581</v>
       </c>
       <c r="N24" s="6" t="n">
-        <v>0.6933512653093571</v>
+        <v>0.6933512653093573</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.6623444588208456</v>
+        <v>0.6657505446219457</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.7191186934987077</v>
+        <v>0.7186469851642328</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1198</v>
@@ -4975,19 +4975,19 @@
         <v>863735</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>827671</v>
+        <v>828553</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>897626</v>
+        <v>897737</v>
       </c>
       <c r="U24" s="6" t="n">
-        <v>0.6182667289151463</v>
+        <v>0.6182667289151462</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5924521800668684</v>
+        <v>0.5930836467903964</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.6425262001352469</v>
+        <v>0.6426057671853487</v>
       </c>
     </row>
     <row r="25">
@@ -5004,19 +5004,19 @@
         <v>95144</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>79253</v>
+        <v>79154</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>112991</v>
+        <v>114189</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.1678373248070939</v>
+        <v>0.1678373248070938</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1398052630596744</v>
+        <v>0.1396310036866168</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1993196036449733</v>
+        <v>0.2014328281122308</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>113</v>
@@ -5025,19 +5025,19 @@
         <v>80468</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>66016</v>
+        <v>66280</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>96522</v>
+        <v>96131</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.09693225425861894</v>
+        <v>0.09693225425861896</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.07952354321545423</v>
+        <v>0.0798419740885225</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.1162712796560334</v>
+        <v>0.115800675640847</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>225</v>
@@ -5046,19 +5046,19 @@
         <v>175612</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>155812</v>
+        <v>153566</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>200369</v>
+        <v>198996</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1257039316156661</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1115312397616665</v>
+        <v>0.1099238090749772</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1434251004321102</v>
+        <v>0.1424426301359348</v>
       </c>
     </row>
     <row r="26">
@@ -5075,19 +5075,19 @@
         <v>7397</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2406</v>
+        <v>2046</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>21108</v>
+        <v>20286</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01304877993840755</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.004243508513620071</v>
+        <v>0.003608652218947112</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03723568064165842</v>
+        <v>0.03578535200511977</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>23</v>
@@ -5096,19 +5096,19 @@
         <v>14535</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>9271</v>
+        <v>9069</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>21945</v>
+        <v>21326</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.01750855897312917</v>
+        <v>0.01750855897312918</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01116784588541549</v>
+        <v>0.01092422282961431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02643477305600085</v>
+        <v>0.0256900103394959</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>28</v>
@@ -5117,19 +5117,19 @@
         <v>21932</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>14176</v>
+        <v>14198</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>34775</v>
+        <v>34596</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01569888129453481</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01014748763944372</v>
+        <v>0.01016315420698359</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02489229558710531</v>
+        <v>0.02476404605247234</v>
       </c>
     </row>
     <row r="27">
@@ -5146,19 +5146,19 @@
         <v>176188</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>152188</v>
+        <v>153556</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>201564</v>
+        <v>202112</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.3108013499357594</v>
+        <v>0.3108013499357593</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.2684642052291686</v>
+        <v>0.2708785142433496</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.3555658821587929</v>
+        <v>0.3565334010952035</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>224</v>
@@ -5167,19 +5167,19 @@
         <v>159560</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>141063</v>
+        <v>142366</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>180747</v>
+        <v>180998</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>0.1922079214588947</v>
+        <v>0.1922079214588948</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.1699258118396219</v>
+        <v>0.1714954763998521</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.217729771495327</v>
+        <v>0.2180323145510376</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>384</v>
@@ -5188,19 +5188,19 @@
         <v>335748</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>306432</v>
+        <v>305880</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>369053</v>
+        <v>370121</v>
       </c>
       <c r="U27" s="6" t="n">
-        <v>0.2403304581746528</v>
+        <v>0.2403304581746527</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.219346058399899</v>
+        <v>0.2189506999672032</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.2641707709781637</v>
+        <v>0.2649346841713604</v>
       </c>
     </row>
     <row r="28">
@@ -5292,19 +5292,19 @@
         <v>202445</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>182006</v>
+        <v>183259</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>216515</v>
+        <v>215955</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.8575070513404878</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.7709301860093201</v>
+        <v>0.7762368561445856</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.9171005433117096</v>
+        <v>0.9147299036614828</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>991</v>
@@ -5313,19 +5313,19 @@
         <v>714542</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>691840</v>
+        <v>691002</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>733085</v>
+        <v>733773</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.8463320925629448</v>
+        <v>0.8463320925629449</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.8194433562527208</v>
+        <v>0.8184500515572142</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.86829485421815</v>
+        <v>0.8691103614323044</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>1083</v>
@@ -5334,19 +5334,19 @@
         <v>916988</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>889264</v>
+        <v>890923</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>940715</v>
+        <v>939863</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.8487740887901768</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.823112585817815</v>
+        <v>0.8246484681933081</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.870736776689484</v>
+        <v>0.8699477458517388</v>
       </c>
     </row>
     <row r="30">
@@ -5363,19 +5363,19 @@
         <v>6666</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>2137</v>
+        <v>2374</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>14644</v>
+        <v>14124</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>0.02823390429492625</v>
+        <v>0.02823390429492626</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.009051913590016662</v>
+        <v>0.01005490095004478</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.06202989513657203</v>
+        <v>0.05982631279326484</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>60</v>
@@ -5384,19 +5384,19 @@
         <v>38167</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>28842</v>
+        <v>28586</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>49312</v>
+        <v>49010</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>0.04520703254748134</v>
+        <v>0.04520703254748135</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.03416102509310007</v>
+        <v>0.03385846970745268</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.05840672039362257</v>
+        <v>0.05804997633114437</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>66</v>
@@ -5405,19 +5405,19 @@
         <v>44833</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>35223</v>
+        <v>34954</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>57603</v>
+        <v>57887</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04149799737498872</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.03260253086953241</v>
+        <v>0.03235357832630612</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.05331779452658562</v>
+        <v>0.05358093513171189</v>
       </c>
     </row>
     <row r="31">
@@ -5434,19 +5434,19 @@
         <v>11792</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>3413</v>
+        <v>3543</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>29986</v>
+        <v>27746</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>0.04994584159027428</v>
+        <v>0.0499458415902743</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.01445743989808648</v>
+        <v>0.01500621195566223</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1270147514088956</v>
+        <v>0.1175251829650154</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>9</v>
@@ -5455,19 +5455,19 @@
         <v>10395</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>4582</v>
+        <v>4727</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>22210</v>
+        <v>23087</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.01231230774958827</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.005426911911694554</v>
+        <v>0.005598733903686956</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.02630643927021043</v>
+        <v>0.02734571376159208</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>13</v>
@@ -5476,19 +5476,19 @@
         <v>22187</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>10366</v>
+        <v>11035</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>42250</v>
+        <v>41488</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.02053613653373025</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.009595108491256282</v>
+        <v>0.01021411607863572</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.0391070690904231</v>
+        <v>0.03840197902845423</v>
       </c>
     </row>
     <row r="32">
@@ -5505,19 +5505,19 @@
         <v>15183</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>7142</v>
+        <v>6707</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>27466</v>
+        <v>29639</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.06431320277431167</v>
+        <v>0.0643132027743117</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.03025255408774153</v>
+        <v>0.02840903777302965</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1163405763290644</v>
+        <v>0.1255420739764875</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>99</v>
@@ -5526,19 +5526,19 @@
         <v>81176</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>65840</v>
+        <v>66328</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>100566</v>
+        <v>99819</v>
       </c>
       <c r="N32" s="6" t="n">
-        <v>0.0961485671399855</v>
+        <v>0.09614856713998551</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.07798383282141622</v>
+        <v>0.07856178543117577</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.1191138229705938</v>
+        <v>0.1182295381660897</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>108</v>
@@ -5547,19 +5547,19 @@
         <v>96360</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>78137</v>
+        <v>78780</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>118748</v>
+        <v>118787</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.08919177730110432</v>
+        <v>0.08919177730110431</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.07232422199614461</v>
+        <v>0.07291927260881814</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1099141570178042</v>
+        <v>0.1099504113458652</v>
       </c>
     </row>
     <row r="33">
@@ -5651,19 +5651,19 @@
         <v>1896723</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1831910</v>
+        <v>1833761</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1958813</v>
+        <v>1958089</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.5513325905354937</v>
+        <v>0.5513325905354935</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.532492945382708</v>
+        <v>0.5330309838889491</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.5693805864740576</v>
+        <v>0.5691702312406945</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>3793</v>
@@ -5672,19 +5672,19 @@
         <v>2584935</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2535880</v>
+        <v>2538735</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>2632141</v>
+        <v>2631505</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>0.7113224589049124</v>
+        <v>0.7113224589049123</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.6978233262188225</v>
+        <v>0.6986091026932346</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.7243126384126984</v>
+        <v>0.7241375313966142</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5539</v>
@@ -5693,19 +5693,19 @@
         <v>4481658</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>4399706</v>
+        <v>4397904</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4559873</v>
+        <v>4563441</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.6335182372604342</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.6219336754721738</v>
+        <v>0.6216788547180732</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.6445745609194647</v>
+        <v>0.6450788879908799</v>
       </c>
     </row>
     <row r="35">
@@ -5722,19 +5722,19 @@
         <v>652984</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>609306</v>
+        <v>607678</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>701608</v>
+        <v>701309</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1898070997074175</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1771107577073018</v>
+        <v>0.1766376016186924</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2039407914242337</v>
+        <v>0.2038539972886498</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>518</v>
@@ -5743,19 +5743,19 @@
         <v>358689</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>328258</v>
+        <v>329955</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>388553</v>
+        <v>392325</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.09870392002827348</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.09033005566674317</v>
+        <v>0.09079698877490294</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1069218830972763</v>
+        <v>0.1079599538479527</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>1269</v>
@@ -5764,19 +5764,19 @@
         <v>1011673</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>960537</v>
+        <v>958096</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>1070092</v>
+        <v>1067726</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.1430080503867412</v>
+        <v>0.1430080503867413</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1357795208433764</v>
+        <v>0.1354344908824464</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1512660363779676</v>
+        <v>0.1509316617232145</v>
       </c>
     </row>
     <row r="36">
@@ -5793,19 +5793,19 @@
         <v>78110</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>57170</v>
+        <v>58962</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>107343</v>
+        <v>104210</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0227046946634214</v>
+        <v>0.02270469466342139</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01661805850782212</v>
+        <v>0.0171387645624767</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03120202041997443</v>
+        <v>0.03029148417121558</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>103</v>
@@ -5814,19 +5814,19 @@
         <v>76733</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>62358</v>
+        <v>62993</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>94737</v>
+        <v>93533</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.02111538696196711</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.01715963262720759</v>
+        <v>0.01733427740316668</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.02606984534336525</v>
+        <v>0.02573846011374629</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>157</v>
@@ -5835,19 +5835,19 @@
         <v>154843</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>128929</v>
+        <v>129320</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>184569</v>
+        <v>186282</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.02188827870771006</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.01822517113550323</v>
+        <v>0.01828044043706485</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.02609027167022425</v>
+        <v>0.02633251889575049</v>
       </c>
     </row>
     <row r="37">
@@ -5864,19 +5864,19 @@
         <v>812435</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>757169</v>
+        <v>756616</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>869425</v>
+        <v>865642</v>
       </c>
       <c r="G37" s="6" t="n">
-        <v>0.2361556150936676</v>
+        <v>0.2361556150936675</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2200912178042156</v>
+        <v>0.2199303940964715</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2527212289541982</v>
+        <v>0.2516216514169377</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>828</v>
@@ -5885,19 +5885,19 @@
         <v>613628</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>576722</v>
+        <v>572972</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>655263</v>
+        <v>651730</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1688582341048471</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1587023155385396</v>
+        <v>0.1576705157938618</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.1803152180760018</v>
+        <v>0.1793430403885821</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>1575</v>
@@ -5906,19 +5906,19 @@
         <v>1426063</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>1359442</v>
+        <v>1361219</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>1499762</v>
+        <v>1506648</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2015854336451144</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1921679489496882</v>
+        <v>0.1924191338148368</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2120033136350372</v>
+        <v>0.2129768067809515</v>
       </c>
     </row>
     <row r="38">
